--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus20\Documents\GitHub\pratyusha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FB928D-7435-4CC3-86EE-EB10C049F886}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF4A4A5-86BE-4E4B-BEB8-6DEA751BB5D3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3945" yWindow="2790" windowWidth="18000" windowHeight="9480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -638,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
